--- a/tests/fixtures/dynamic_tests/template.xlsx
+++ b/tests/fixtures/dynamic_tests/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="6060" windowWidth="25160" windowHeight="15540" tabRatio="500" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="-33200" yWindow="4680" windowWidth="32800" windowHeight="15540" tabRatio="500" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,6 @@
     <externalReference r:id="rId30"/>
     <externalReference r:id="rId31"/>
     <externalReference r:id="rId32"/>
-    <externalReference r:id="rId33"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$1:$C$24</definedName>
@@ -65,9 +64,9 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="14">[3]Reactions!$A$2:$D$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="24">[4]References!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="6">'[5]Species types'!$A$2:$K$7</definedName>
-    <definedName name="avogadros_constant">'[6]!!Parameters'!$D$5</definedName>
-    <definedName name="density_c">'[6]!!Parameters'!$D$6:$D$6</definedName>
-    <definedName name="volume_c">'[6]!!Compartments'!$I$4</definedName>
+    <definedName name="avogadros_constant">'!!Parameters'!$D$6</definedName>
+    <definedName name="density_c">'!!Parameters'!$D$7</definedName>
+    <definedName name="volume_c">'!!Compartments'!$I$4</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="243">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
   </si>
@@ -720,12 +719,6 @@
     <t>!Pop B[c]</t>
   </si>
   <si>
-    <t>!Computation for Pop A[c]</t>
-  </si>
-  <si>
-    <t>!Computation for Pop B[c]</t>
-  </si>
-  <si>
     <t>!Cell mass</t>
   </si>
   <si>
@@ -738,18 +731,6 @@
     <t>!Cell accounted volume</t>
   </si>
   <si>
-    <t>!Computation for cell mass</t>
-  </si>
-  <si>
-    <t>!Computation for cell volume</t>
-  </si>
-  <si>
-    <t>!Computation for cell accounted mass</t>
-  </si>
-  <si>
-    <t>!Computation for cell accounted volume</t>
-  </si>
-  <si>
     <t>!Compartment c mass</t>
   </si>
   <si>
@@ -762,18 +743,6 @@
     <t>!Compartment c accounted volume</t>
   </si>
   <si>
-    <t>!Computation for compartment c mass</t>
-  </si>
-  <si>
-    <t>!Computation for compartment c volume</t>
-  </si>
-  <si>
-    <t>!Computation for compartment c accounted mass</t>
-  </si>
-  <si>
-    <t>!Computation for compartment c accounted volume</t>
-  </si>
-  <si>
     <t>From scipy 1.3.1; will be updated to 2019 SI value</t>
   </si>
   <si>
@@ -795,19 +764,52 @@
     <t>!!ObjTables Type='Data' Id='AggregateTrajectory' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='CompartmentMasses' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
-    <t>molecular weights</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
     <t>mass (g)</t>
+  </si>
+  <si>
+    <t>mw (g/mol)</t>
+  </si>
+  <si>
+    <t>compartment</t>
+  </si>
+  <si>
+    <t>initial mean copy number (molecule)</t>
+  </si>
+  <si>
+    <t>Computation for Pop A[c]</t>
+  </si>
+  <si>
+    <t>Computation for Pop B[c]</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Computation for cell mass</t>
+  </si>
+  <si>
+    <t>Computation for cell volume</t>
+  </si>
+  <si>
+    <t>Computation for cell accounted mass</t>
+  </si>
+  <si>
+    <t>Computation for cell accounted volume</t>
+  </si>
+  <si>
+    <t>Computation for compartment c mass</t>
+  </si>
+  <si>
+    <t>Computation for compartment c volume</t>
+  </si>
+  <si>
+    <t>Computation for compartment c accounted mass</t>
+  </si>
+  <si>
+    <t>Computation for compartment c accounted volume</t>
   </si>
 </sst>
 </file>
@@ -819,7 +821,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -886,6 +888,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -1017,7 +1025,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1039,9 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1190,13 +1195,7 @@
     <xf numFmtId="11" fontId="9" fillId="4" borderId="6" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="6" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1214,6 +1213,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="6" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1238,7 +1243,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="6" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="4" borderId="6" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -1321,116 +1335,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="!!_Table of contents"/>
-      <sheetName val="!!Model"/>
-      <sheetName val="!!Taxon"/>
-      <sheetName val="!!Environment"/>
-      <sheetName val="!!Submodels"/>
-      <sheetName val="!!Compartments"/>
-      <sheetName val="!!Species types"/>
-      <sheetName val="!!Species"/>
-      <sheetName val="!!Initial species concentration"/>
-      <sheetName val="!!Species trajectories"/>
-      <sheetName val="!!Aggregate trajectories"/>
-      <sheetName val="Compartment accounted masses"/>
-      <sheetName val="!!Observables"/>
-      <sheetName val="!!Functions"/>
-      <sheetName val="!!Reactions"/>
-      <sheetName val="!!Rate laws"/>
-      <sheetName val="!!dFBA objectives"/>
-      <sheetName val="!!dFBA objective reactions"/>
-      <sheetName val="!!dFBA objective species"/>
-      <sheetName val="!!Parameters"/>
-      <sheetName val="!!Stop conditions"/>
-      <sheetName val="!!Observations"/>
-      <sheetName val="!!Observation sets"/>
-      <sheetName val="!!Conclusions"/>
-      <sheetName val="!!References"/>
-      <sheetName val="!!Authors"/>
-      <sheetName val="!!Changes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="4">
-          <cell r="I4">
-            <v>9.9999999999999991E-22</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="4">
-          <cell r="G4">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>A[c]</v>
-          </cell>
-          <cell r="E3">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>B[c]</v>
-          </cell>
-          <cell r="E4">
-            <v>2000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="5">
-          <cell r="D5">
-            <v>6.0221408570000002E+23</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1702,9 +1606,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="13" customWidth="1"/>
-    <col min="4" max="5" width="9" style="13" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="13" hidden="1"/>
+    <col min="1" max="3" width="15.6640625" style="12" customWidth="1"/>
+    <col min="4" max="5" width="9" style="12" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="12" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1718,220 +1622,220 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1969,7 +1873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1980,54 +1886,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="A1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>43</v>
+      <c r="D2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2043,119 +1951,119 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+    </row>
+    <row r="2" spans="1:18" s="51" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-    </row>
-    <row r="2" spans="1:18" s="52" customFormat="1" ht="65" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="51" t="s">
+      <c r="H2" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="K2" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="L2" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>43</v>
+      <c r="N2" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N11" s="50"/>
+      <c r="N11" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2164,86 +2072,34 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" s="52" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>'[6]!!Initial species concentration'!C3</f>
-        <v>A[c]</v>
-      </c>
-      <c r="B3">
-        <f>'[6]!!Species types'!G4</f>
-        <v>100</v>
-      </c>
-      <c r="C3" s="77">
-        <f>'[6]!!Initial species concentration'!E3</f>
-        <v>1000</v>
-      </c>
-      <c r="D3" s="77">
-        <f>B3*C3/avogadros_constant</f>
-        <v>1.6605390404271641E-19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f>'[6]!!Initial species concentration'!C4</f>
-        <v>B[c]</v>
-      </c>
-      <c r="B4">
-        <f>'[6]!!Species types'!G5</f>
-        <v>300</v>
-      </c>
-      <c r="C4" s="77">
-        <f>'[6]!!Initial species concentration'!E4</f>
-        <v>2000</v>
-      </c>
-      <c r="D4" s="77">
-        <f>B4*C4/avogadros_constant</f>
-        <v>9.963234242562985E-19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D5" s="77">
-        <f>SUM(D3:D4)</f>
-        <v>1.1623773282990149E-18</v>
-      </c>
-    </row>
+    <row r="1" spans="1:5" s="51" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2259,9 +2115,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1026" width="8.83203125" style="17" customWidth="1"/>
-    <col min="1027" max="1028" width="9" style="17" customWidth="1"/>
-    <col min="1029" max="16384" width="9" style="17"/>
+    <col min="1" max="1026" width="8.83203125" style="16" customWidth="1"/>
+    <col min="1027" max="1028" width="9" style="16" customWidth="1"/>
+    <col min="1029" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2285,16 +2141,16 @@
       <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2308,17 +2164,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="1026" width="8.83203125" style="17" customWidth="1"/>
-    <col min="1027" max="1028" width="9" style="17" customWidth="1"/>
-    <col min="1029" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="8.83203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="1026" width="8.83203125" style="16" customWidth="1"/>
+    <col min="1027" max="1028" width="9" style="16" customWidth="1"/>
+    <col min="1029" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2327,31 +2183,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2367,15 +2223,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="79" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2390,21 +2246,21 @@
   <dimension ref="A1:AMM5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="19" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="50.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="17" customWidth="1"/>
+    <col min="1" max="1" width="18" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="50.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="16" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
@@ -2419,18 +2275,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:1027" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1027" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -3451,46 +3307,46 @@
       <c r="AMM2" s="6"/>
     </row>
     <row r="3" spans="1:1027" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="52" t="s">
         <v>51</v>
       </c>
       <c r="O3" s="6"/>
@@ -4508,28 +4364,31 @@
       <c r="AMM3" s="6"/>
     </row>
     <row r="4" spans="1:1027" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:1027" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="56"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D4"/>
@@ -4546,21 +4405,21 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="23.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="62.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="17" customWidth="1"/>
-    <col min="8" max="10" width="9.1640625" style="17" customWidth="1"/>
-    <col min="11" max="1026" width="8.83203125" style="17" customWidth="1"/>
-    <col min="1027" max="1028" width="9" style="17" customWidth="1"/>
-    <col min="1029" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="23.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="16" customWidth="1"/>
+    <col min="8" max="10" width="9.1640625" style="16" customWidth="1"/>
+    <col min="11" max="1026" width="8.83203125" style="16" customWidth="1"/>
+    <col min="1027" max="1028" width="9" style="16" customWidth="1"/>
+    <col min="1029" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4569,57 +4428,59 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4639,11 +4500,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="17" customWidth="1"/>
-    <col min="2" max="3" width="9" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="17" customWidth="1"/>
-    <col min="5" max="6" width="9" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="17.6640625" style="16" customWidth="1"/>
+    <col min="2" max="3" width="9" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="16" customWidth="1"/>
+    <col min="5" max="6" width="9" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4652,40 +4513,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4708,9 +4569,9 @@
     <col min="2" max="2" width="8.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
     <col min="4" max="5" width="8.83203125" style="4" customWidth="1"/>
-    <col min="6" max="1026" width="8.83203125" style="17" customWidth="1"/>
-    <col min="1027" max="1028" width="9" style="17" customWidth="1"/>
-    <col min="1029" max="16384" width="9" style="17"/>
+    <col min="6" max="1026" width="8.83203125" style="16" customWidth="1"/>
+    <col min="1027" max="1028" width="9" style="16" customWidth="1"/>
+    <col min="1029" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -4719,34 +4580,34 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4772,9 +4633,9 @@
     <col min="4" max="4" width="11" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="4" customWidth="1"/>
     <col min="6" max="7" width="8.83203125" style="4" customWidth="1"/>
-    <col min="8" max="1026" width="8.83203125" style="17" customWidth="1"/>
-    <col min="1027" max="1028" width="9" style="17" customWidth="1"/>
-    <col min="1029" max="16384" width="9" style="17"/>
+    <col min="8" max="1026" width="8.83203125" style="16" customWidth="1"/>
+    <col min="1027" max="1028" width="9" style="16" customWidth="1"/>
+    <col min="1029" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -4804,10 +4665,10 @@
       <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -4828,16 +4689,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="1025" width="8.83203125" style="17" customWidth="1"/>
-    <col min="1026" max="1027" width="9" style="17" customWidth="1"/>
-    <col min="1028" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="13.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.83203125" style="16" customWidth="1"/>
+    <col min="1026" max="1027" width="9" style="16" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4846,88 +4707,88 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4945,168 +4806,168 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="17" customWidth="1"/>
-    <col min="8" max="9" width="9.5" style="17" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="54" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9.5" style="16" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="53" customWidth="1"/>
     <col min="11" max="1026" width="8.83203125" style="1" customWidth="1"/>
     <col min="1027" max="1028" width="9" style="1" customWidth="1"/>
     <col min="1029" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="48"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="60">
         <v>0.3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="49"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="61">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="55" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="62">
         <v>2000</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="55" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="63">
         <v>6.0221408570000002E+23</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="J6" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="61">
         <v>1100</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>146</v>
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="61">
         <v>1000</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="64">
+      <c r="A9" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="61">
         <v>100</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="67">
+      <c r="A10" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="64">
         <v>10</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="59" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5122,17 +4983,17 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16" style="17" customWidth="1"/>
-    <col min="5" max="1026" width="8.83203125" style="17" customWidth="1"/>
-    <col min="1027" max="1028" width="9" style="17" customWidth="1"/>
-    <col min="1029" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="8.83203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16" style="16" customWidth="1"/>
+    <col min="5" max="1026" width="8.83203125" style="16" customWidth="1"/>
+    <col min="1027" max="1028" width="9" style="16" customWidth="1"/>
+    <col min="1029" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -5141,31 +5002,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5185,8 +5046,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="9" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -5195,26 +5056,26 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="75" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="Q2" s="76" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="Q2" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="76" t="s">
+      <c r="R2" s="72"/>
+      <c r="S2" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="T2" s="73"/>
+      <c r="T2" s="72"/>
     </row>
     <row r="3" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -5308,9 +5169,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="17" customWidth="1"/>
-    <col min="2" max="3" width="13.33203125" style="17" customWidth="1"/>
-    <col min="4" max="6" width="9.1640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14" style="16" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" style="16" customWidth="1"/>
+    <col min="4" max="6" width="9.1640625" style="16" customWidth="1"/>
     <col min="7" max="1017" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5366,9 +5227,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="17" customWidth="1"/>
-    <col min="3" max="14" width="9.1640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="16" customWidth="1"/>
+    <col min="3" max="14" width="9.1640625" style="16" customWidth="1"/>
     <col min="15" max="1024" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5378,10 +5239,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="73"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -5482,70 +5343,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="17" width="8.83203125" style="17" customWidth="1"/>
+    <col min="1" max="17" width="8.83203125" style="16" customWidth="1"/>
     <col min="18" max="1025" width="8.83203125" style="1" customWidth="1"/>
     <col min="1026" max="1027" width="9" style="1" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5566,8 +5427,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="9" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -5576,40 +5437,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5628,8 +5489,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="9" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -5638,55 +5499,55 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5705,11 +5566,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="31" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="1025" width="8.83203125" style="17" customWidth="1"/>
-    <col min="1026" max="1027" width="9" style="17" customWidth="1"/>
-    <col min="1028" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="8.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="31" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.83203125" style="16" customWidth="1"/>
+    <col min="1026" max="1027" width="9" style="16" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5718,46 +5579,46 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5777,11 +5638,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="17" customWidth="1"/>
-    <col min="3" max="1019" width="8.83203125" style="12" customWidth="1"/>
-    <col min="1020" max="1021" width="9" style="12" customWidth="1"/>
-    <col min="1022" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="18.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="16" customWidth="1"/>
+    <col min="3" max="1019" width="8.83203125" style="11" customWidth="1"/>
+    <col min="1020" max="1021" width="9" style="11" customWidth="1"/>
+    <col min="1022" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5790,47 +5651,47 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5844,66 +5705,69 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="17" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="16" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="1026" width="8.83203125" style="1" customWidth="1"/>
     <col min="1027" max="1028" width="9" style="1" customWidth="1"/>
     <col min="1029" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F4" s="45"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5"/>
@@ -5919,31 +5783,31 @@
   <dimension ref="A1:AMR9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12" style="17" customWidth="1"/>
-    <col min="3" max="3" width="23" style="17" customWidth="1"/>
-    <col min="4" max="4" width="20" style="17" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" style="9" customWidth="1"/>
-    <col min="17" max="19" width="8.83203125" style="9" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="39" style="9" customWidth="1"/>
-    <col min="21" max="1035" width="8.83203125" style="9" customWidth="1"/>
-    <col min="1036" max="1037" width="9" style="9" customWidth="1"/>
-    <col min="1038" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="8.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20" style="16" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="16" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="8" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" style="8" customWidth="1"/>
+    <col min="17" max="19" width="8.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="39" style="8" customWidth="1"/>
+    <col min="21" max="1035" width="8.83203125" style="8" customWidth="1"/>
+    <col min="1036" max="1037" width="9" style="8" customWidth="1"/>
+    <col min="1038" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1032" x14ac:dyDescent="0.2">
@@ -5951,27 +5815,27 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1032" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1032" s="15" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="68" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="71" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -6989,1179 +6853,1179 @@
       <c r="AMQ2" s="6"/>
       <c r="AMR2" s="6"/>
     </row>
-    <row r="3" spans="1:1032" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:1032" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="U3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="30"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="30"/>
-      <c r="CM3" s="30"/>
-      <c r="CN3" s="30"/>
-      <c r="CO3" s="30"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
-      <c r="CS3" s="30"/>
-      <c r="CT3" s="30"/>
-      <c r="CU3" s="30"/>
-      <c r="CV3" s="30"/>
-      <c r="CW3" s="30"/>
-      <c r="CX3" s="30"/>
-      <c r="CY3" s="30"/>
-      <c r="CZ3" s="30"/>
-      <c r="DA3" s="30"/>
-      <c r="DB3" s="30"/>
-      <c r="DC3" s="30"/>
-      <c r="DD3" s="30"/>
-      <c r="DE3" s="30"/>
-      <c r="DF3" s="30"/>
-      <c r="DG3" s="30"/>
-      <c r="DH3" s="30"/>
-      <c r="DI3" s="30"/>
-      <c r="DJ3" s="30"/>
-      <c r="DK3" s="30"/>
-      <c r="DL3" s="30"/>
-      <c r="DM3" s="30"/>
-      <c r="DN3" s="30"/>
-      <c r="DO3" s="30"/>
-      <c r="DP3" s="30"/>
-      <c r="DQ3" s="30"/>
-      <c r="DR3" s="30"/>
-      <c r="DS3" s="30"/>
-      <c r="DT3" s="30"/>
-      <c r="DU3" s="30"/>
-      <c r="DV3" s="30"/>
-      <c r="DW3" s="30"/>
-      <c r="DX3" s="30"/>
-      <c r="DY3" s="30"/>
-      <c r="DZ3" s="30"/>
-      <c r="EA3" s="30"/>
-      <c r="EB3" s="30"/>
-      <c r="EC3" s="30"/>
-      <c r="ED3" s="30"/>
-      <c r="EE3" s="30"/>
-      <c r="EF3" s="30"/>
-      <c r="EG3" s="30"/>
-      <c r="EH3" s="30"/>
-      <c r="EI3" s="30"/>
-      <c r="EJ3" s="30"/>
-      <c r="EK3" s="30"/>
-      <c r="EL3" s="30"/>
-      <c r="EM3" s="30"/>
-      <c r="EN3" s="30"/>
-      <c r="EO3" s="30"/>
-      <c r="EP3" s="30"/>
-      <c r="EQ3" s="30"/>
-      <c r="ER3" s="30"/>
-      <c r="ES3" s="30"/>
-      <c r="ET3" s="30"/>
-      <c r="EU3" s="30"/>
-      <c r="EV3" s="30"/>
-      <c r="EW3" s="30"/>
-      <c r="EX3" s="30"/>
-      <c r="EY3" s="30"/>
-      <c r="EZ3" s="30"/>
-      <c r="FA3" s="30"/>
-      <c r="FB3" s="30"/>
-      <c r="FC3" s="30"/>
-      <c r="FD3" s="30"/>
-      <c r="FE3" s="30"/>
-      <c r="FF3" s="30"/>
-      <c r="FG3" s="30"/>
-      <c r="FH3" s="30"/>
-      <c r="FI3" s="30"/>
-      <c r="FJ3" s="30"/>
-      <c r="FK3" s="30"/>
-      <c r="FL3" s="30"/>
-      <c r="FM3" s="30"/>
-      <c r="FN3" s="30"/>
-      <c r="FO3" s="30"/>
-      <c r="FP3" s="30"/>
-      <c r="FQ3" s="30"/>
-      <c r="FR3" s="30"/>
-      <c r="FS3" s="30"/>
-      <c r="FT3" s="30"/>
-      <c r="FU3" s="30"/>
-      <c r="FV3" s="30"/>
-      <c r="FW3" s="30"/>
-      <c r="FX3" s="30"/>
-      <c r="FY3" s="30"/>
-      <c r="FZ3" s="30"/>
-      <c r="GA3" s="30"/>
-      <c r="GB3" s="30"/>
-      <c r="GC3" s="30"/>
-      <c r="GD3" s="30"/>
-      <c r="GE3" s="30"/>
-      <c r="GF3" s="30"/>
-      <c r="GG3" s="30"/>
-      <c r="GH3" s="30"/>
-      <c r="GI3" s="30"/>
-      <c r="GJ3" s="30"/>
-      <c r="GK3" s="30"/>
-      <c r="GL3" s="30"/>
-      <c r="GM3" s="30"/>
-      <c r="GN3" s="30"/>
-      <c r="GO3" s="30"/>
-      <c r="GP3" s="30"/>
-      <c r="GQ3" s="30"/>
-      <c r="GR3" s="30"/>
-      <c r="GS3" s="30"/>
-      <c r="GT3" s="30"/>
-      <c r="GU3" s="30"/>
-      <c r="GV3" s="30"/>
-      <c r="GW3" s="30"/>
-      <c r="GX3" s="30"/>
-      <c r="GY3" s="30"/>
-      <c r="GZ3" s="30"/>
-      <c r="HA3" s="30"/>
-      <c r="HB3" s="30"/>
-      <c r="HC3" s="30"/>
-      <c r="HD3" s="30"/>
-      <c r="HE3" s="30"/>
-      <c r="HF3" s="30"/>
-      <c r="HG3" s="30"/>
-      <c r="HH3" s="30"/>
-      <c r="HI3" s="30"/>
-      <c r="HJ3" s="30"/>
-      <c r="HK3" s="30"/>
-      <c r="HL3" s="30"/>
-      <c r="HM3" s="30"/>
-      <c r="HN3" s="30"/>
-      <c r="HO3" s="30"/>
-      <c r="HP3" s="30"/>
-      <c r="HQ3" s="30"/>
-      <c r="HR3" s="30"/>
-      <c r="HS3" s="30"/>
-      <c r="HT3" s="30"/>
-      <c r="HU3" s="30"/>
-      <c r="HV3" s="30"/>
-      <c r="HW3" s="30"/>
-      <c r="HX3" s="30"/>
-      <c r="HY3" s="30"/>
-      <c r="HZ3" s="30"/>
-      <c r="IA3" s="30"/>
-      <c r="IB3" s="30"/>
-      <c r="IC3" s="30"/>
-      <c r="ID3" s="30"/>
-      <c r="IE3" s="30"/>
-      <c r="IF3" s="30"/>
-      <c r="IG3" s="30"/>
-      <c r="IH3" s="30"/>
-      <c r="II3" s="30"/>
-      <c r="IJ3" s="30"/>
-      <c r="IK3" s="30"/>
-      <c r="IL3" s="30"/>
-      <c r="IM3" s="30"/>
-      <c r="IN3" s="30"/>
-      <c r="IO3" s="30"/>
-      <c r="IP3" s="30"/>
-      <c r="IQ3" s="30"/>
-      <c r="IR3" s="30"/>
-      <c r="IS3" s="30"/>
-      <c r="IT3" s="30"/>
-      <c r="IU3" s="30"/>
-      <c r="IV3" s="30"/>
-      <c r="IW3" s="30"/>
-      <c r="IX3" s="30"/>
-      <c r="IY3" s="30"/>
-      <c r="IZ3" s="30"/>
-      <c r="JA3" s="30"/>
-      <c r="JB3" s="30"/>
-      <c r="JC3" s="30"/>
-      <c r="JD3" s="30"/>
-      <c r="JE3" s="30"/>
-      <c r="JF3" s="30"/>
-      <c r="JG3" s="30"/>
-      <c r="JH3" s="30"/>
-      <c r="JI3" s="30"/>
-      <c r="JJ3" s="30"/>
-      <c r="JK3" s="30"/>
-      <c r="JL3" s="30"/>
-      <c r="JM3" s="30"/>
-      <c r="JN3" s="30"/>
-      <c r="JO3" s="30"/>
-      <c r="JP3" s="30"/>
-      <c r="JQ3" s="30"/>
-      <c r="JR3" s="30"/>
-      <c r="JS3" s="30"/>
-      <c r="JT3" s="30"/>
-      <c r="JU3" s="30"/>
-      <c r="JV3" s="30"/>
-      <c r="JW3" s="30"/>
-      <c r="JX3" s="30"/>
-      <c r="JY3" s="30"/>
-      <c r="JZ3" s="30"/>
-      <c r="KA3" s="30"/>
-      <c r="KB3" s="30"/>
-      <c r="KC3" s="30"/>
-      <c r="KD3" s="30"/>
-      <c r="KE3" s="30"/>
-      <c r="KF3" s="30"/>
-      <c r="KG3" s="30"/>
-      <c r="KH3" s="30"/>
-      <c r="KI3" s="30"/>
-      <c r="KJ3" s="30"/>
-      <c r="KK3" s="30"/>
-      <c r="KL3" s="30"/>
-      <c r="KM3" s="30"/>
-      <c r="KN3" s="30"/>
-      <c r="KO3" s="30"/>
-      <c r="KP3" s="30"/>
-      <c r="KQ3" s="30"/>
-      <c r="KR3" s="30"/>
-      <c r="KS3" s="30"/>
-      <c r="KT3" s="30"/>
-      <c r="KU3" s="30"/>
-      <c r="KV3" s="30"/>
-      <c r="KW3" s="30"/>
-      <c r="KX3" s="30"/>
-      <c r="KY3" s="30"/>
-      <c r="KZ3" s="30"/>
-      <c r="LA3" s="30"/>
-      <c r="LB3" s="30"/>
-      <c r="LC3" s="30"/>
-      <c r="LD3" s="30"/>
-      <c r="LE3" s="30"/>
-      <c r="LF3" s="30"/>
-      <c r="LG3" s="30"/>
-      <c r="LH3" s="30"/>
-      <c r="LI3" s="30"/>
-      <c r="LJ3" s="30"/>
-      <c r="LK3" s="30"/>
-      <c r="LL3" s="30"/>
-      <c r="LM3" s="30"/>
-      <c r="LN3" s="30"/>
-      <c r="LO3" s="30"/>
-      <c r="LP3" s="30"/>
-      <c r="LQ3" s="30"/>
-      <c r="LR3" s="30"/>
-      <c r="LS3" s="30"/>
-      <c r="LT3" s="30"/>
-      <c r="LU3" s="30"/>
-      <c r="LV3" s="30"/>
-      <c r="LW3" s="30"/>
-      <c r="LX3" s="30"/>
-      <c r="LY3" s="30"/>
-      <c r="LZ3" s="30"/>
-      <c r="MA3" s="30"/>
-      <c r="MB3" s="30"/>
-      <c r="MC3" s="30"/>
-      <c r="MD3" s="30"/>
-      <c r="ME3" s="30"/>
-      <c r="MF3" s="30"/>
-      <c r="MG3" s="30"/>
-      <c r="MH3" s="30"/>
-      <c r="MI3" s="30"/>
-      <c r="MJ3" s="30"/>
-      <c r="MK3" s="30"/>
-      <c r="ML3" s="30"/>
-      <c r="MM3" s="30"/>
-      <c r="MN3" s="30"/>
-      <c r="MO3" s="30"/>
-      <c r="MP3" s="30"/>
-      <c r="MQ3" s="30"/>
-      <c r="MR3" s="30"/>
-      <c r="MS3" s="30"/>
-      <c r="MT3" s="30"/>
-      <c r="MU3" s="30"/>
-      <c r="MV3" s="30"/>
-      <c r="MW3" s="30"/>
-      <c r="MX3" s="30"/>
-      <c r="MY3" s="30"/>
-      <c r="MZ3" s="30"/>
-      <c r="NA3" s="30"/>
-      <c r="NB3" s="30"/>
-      <c r="NC3" s="30"/>
-      <c r="ND3" s="30"/>
-      <c r="NE3" s="30"/>
-      <c r="NF3" s="30"/>
-      <c r="NG3" s="30"/>
-      <c r="NH3" s="30"/>
-      <c r="NI3" s="30"/>
-      <c r="NJ3" s="30"/>
-      <c r="NK3" s="30"/>
-      <c r="NL3" s="30"/>
-      <c r="NM3" s="30"/>
-      <c r="NN3" s="30"/>
-      <c r="NO3" s="30"/>
-      <c r="NP3" s="30"/>
-      <c r="NQ3" s="30"/>
-      <c r="NR3" s="30"/>
-      <c r="NS3" s="30"/>
-      <c r="NT3" s="30"/>
-      <c r="NU3" s="30"/>
-      <c r="NV3" s="30"/>
-      <c r="NW3" s="30"/>
-      <c r="NX3" s="30"/>
-      <c r="NY3" s="30"/>
-      <c r="NZ3" s="30"/>
-      <c r="OA3" s="30"/>
-      <c r="OB3" s="30"/>
-      <c r="OC3" s="30"/>
-      <c r="OD3" s="30"/>
-      <c r="OE3" s="30"/>
-      <c r="OF3" s="30"/>
-      <c r="OG3" s="30"/>
-      <c r="OH3" s="30"/>
-      <c r="OI3" s="30"/>
-      <c r="OJ3" s="30"/>
-      <c r="OK3" s="30"/>
-      <c r="OL3" s="30"/>
-      <c r="OM3" s="30"/>
-      <c r="ON3" s="30"/>
-      <c r="OO3" s="30"/>
-      <c r="OP3" s="30"/>
-      <c r="OQ3" s="30"/>
-      <c r="OR3" s="30"/>
-      <c r="OS3" s="30"/>
-      <c r="OT3" s="30"/>
-      <c r="OU3" s="30"/>
-      <c r="OV3" s="30"/>
-      <c r="OW3" s="30"/>
-      <c r="OX3" s="30"/>
-      <c r="OY3" s="30"/>
-      <c r="OZ3" s="30"/>
-      <c r="PA3" s="30"/>
-      <c r="PB3" s="30"/>
-      <c r="PC3" s="30"/>
-      <c r="PD3" s="30"/>
-      <c r="PE3" s="30"/>
-      <c r="PF3" s="30"/>
-      <c r="PG3" s="30"/>
-      <c r="PH3" s="30"/>
-      <c r="PI3" s="30"/>
-      <c r="PJ3" s="30"/>
-      <c r="PK3" s="30"/>
-      <c r="PL3" s="30"/>
-      <c r="PM3" s="30"/>
-      <c r="PN3" s="30"/>
-      <c r="PO3" s="30"/>
-      <c r="PP3" s="30"/>
-      <c r="PQ3" s="30"/>
-      <c r="PR3" s="30"/>
-      <c r="PS3" s="30"/>
-      <c r="PT3" s="30"/>
-      <c r="PU3" s="30"/>
-      <c r="PV3" s="30"/>
-      <c r="PW3" s="30"/>
-      <c r="PX3" s="30"/>
-      <c r="PY3" s="30"/>
-      <c r="PZ3" s="30"/>
-      <c r="QA3" s="30"/>
-      <c r="QB3" s="30"/>
-      <c r="QC3" s="30"/>
-      <c r="QD3" s="30"/>
-      <c r="QE3" s="30"/>
-      <c r="QF3" s="30"/>
-      <c r="QG3" s="30"/>
-      <c r="QH3" s="30"/>
-      <c r="QI3" s="30"/>
-      <c r="QJ3" s="30"/>
-      <c r="QK3" s="30"/>
-      <c r="QL3" s="30"/>
-      <c r="QM3" s="30"/>
-      <c r="QN3" s="30"/>
-      <c r="QO3" s="30"/>
-      <c r="QP3" s="30"/>
-      <c r="QQ3" s="30"/>
-      <c r="QR3" s="30"/>
-      <c r="QS3" s="30"/>
-      <c r="QT3" s="30"/>
-      <c r="QU3" s="30"/>
-      <c r="QV3" s="30"/>
-      <c r="QW3" s="30"/>
-      <c r="QX3" s="30"/>
-      <c r="QY3" s="30"/>
-      <c r="QZ3" s="30"/>
-      <c r="RA3" s="30"/>
-      <c r="RB3" s="30"/>
-      <c r="RC3" s="30"/>
-      <c r="RD3" s="30"/>
-      <c r="RE3" s="30"/>
-      <c r="RF3" s="30"/>
-      <c r="RG3" s="30"/>
-      <c r="RH3" s="30"/>
-      <c r="RI3" s="30"/>
-      <c r="RJ3" s="30"/>
-      <c r="RK3" s="30"/>
-      <c r="RL3" s="30"/>
-      <c r="RM3" s="30"/>
-      <c r="RN3" s="30"/>
-      <c r="RO3" s="30"/>
-      <c r="RP3" s="30"/>
-      <c r="RQ3" s="30"/>
-      <c r="RR3" s="30"/>
-      <c r="RS3" s="30"/>
-      <c r="RT3" s="30"/>
-      <c r="RU3" s="30"/>
-      <c r="RV3" s="30"/>
-      <c r="RW3" s="30"/>
-      <c r="RX3" s="30"/>
-      <c r="RY3" s="30"/>
-      <c r="RZ3" s="30"/>
-      <c r="SA3" s="30"/>
-      <c r="SB3" s="30"/>
-      <c r="SC3" s="30"/>
-      <c r="SD3" s="30"/>
-      <c r="SE3" s="30"/>
-      <c r="SF3" s="30"/>
-      <c r="SG3" s="30"/>
-      <c r="SH3" s="30"/>
-      <c r="SI3" s="30"/>
-      <c r="SJ3" s="30"/>
-      <c r="SK3" s="30"/>
-      <c r="SL3" s="30"/>
-      <c r="SM3" s="30"/>
-      <c r="SN3" s="30"/>
-      <c r="SO3" s="30"/>
-      <c r="SP3" s="30"/>
-      <c r="SQ3" s="30"/>
-      <c r="SR3" s="30"/>
-      <c r="SS3" s="30"/>
-      <c r="ST3" s="30"/>
-      <c r="SU3" s="30"/>
-      <c r="SV3" s="30"/>
-      <c r="SW3" s="30"/>
-      <c r="SX3" s="30"/>
-      <c r="SY3" s="30"/>
-      <c r="SZ3" s="30"/>
-      <c r="TA3" s="30"/>
-      <c r="TB3" s="30"/>
-      <c r="TC3" s="30"/>
-      <c r="TD3" s="30"/>
-      <c r="TE3" s="30"/>
-      <c r="TF3" s="30"/>
-      <c r="TG3" s="30"/>
-      <c r="TH3" s="30"/>
-      <c r="TI3" s="30"/>
-      <c r="TJ3" s="30"/>
-      <c r="TK3" s="30"/>
-      <c r="TL3" s="30"/>
-      <c r="TM3" s="30"/>
-      <c r="TN3" s="30"/>
-      <c r="TO3" s="30"/>
-      <c r="TP3" s="30"/>
-      <c r="TQ3" s="30"/>
-      <c r="TR3" s="30"/>
-      <c r="TS3" s="30"/>
-      <c r="TT3" s="30"/>
-      <c r="TU3" s="30"/>
-      <c r="TV3" s="30"/>
-      <c r="TW3" s="30"/>
-      <c r="TX3" s="30"/>
-      <c r="TY3" s="30"/>
-      <c r="TZ3" s="30"/>
-      <c r="UA3" s="30"/>
-      <c r="UB3" s="30"/>
-      <c r="UC3" s="30"/>
-      <c r="UD3" s="30"/>
-      <c r="UE3" s="30"/>
-      <c r="UF3" s="30"/>
-      <c r="UG3" s="30"/>
-      <c r="UH3" s="30"/>
-      <c r="UI3" s="30"/>
-      <c r="UJ3" s="30"/>
-      <c r="UK3" s="30"/>
-      <c r="UL3" s="30"/>
-      <c r="UM3" s="30"/>
-      <c r="UN3" s="30"/>
-      <c r="UO3" s="30"/>
-      <c r="UP3" s="30"/>
-      <c r="UQ3" s="30"/>
-      <c r="UR3" s="30"/>
-      <c r="US3" s="30"/>
-      <c r="UT3" s="30"/>
-      <c r="UU3" s="30"/>
-      <c r="UV3" s="30"/>
-      <c r="UW3" s="30"/>
-      <c r="UX3" s="30"/>
-      <c r="UY3" s="30"/>
-      <c r="UZ3" s="30"/>
-      <c r="VA3" s="30"/>
-      <c r="VB3" s="30"/>
-      <c r="VC3" s="30"/>
-      <c r="VD3" s="30"/>
-      <c r="VE3" s="30"/>
-      <c r="VF3" s="30"/>
-      <c r="VG3" s="30"/>
-      <c r="VH3" s="30"/>
-      <c r="VI3" s="30"/>
-      <c r="VJ3" s="30"/>
-      <c r="VK3" s="30"/>
-      <c r="VL3" s="30"/>
-      <c r="VM3" s="30"/>
-      <c r="VN3" s="30"/>
-      <c r="VO3" s="30"/>
-      <c r="VP3" s="30"/>
-      <c r="VQ3" s="30"/>
-      <c r="VR3" s="30"/>
-      <c r="VS3" s="30"/>
-      <c r="VT3" s="30"/>
-      <c r="VU3" s="30"/>
-      <c r="VV3" s="30"/>
-      <c r="VW3" s="30"/>
-      <c r="VX3" s="30"/>
-      <c r="VY3" s="30"/>
-      <c r="VZ3" s="30"/>
-      <c r="WA3" s="30"/>
-      <c r="WB3" s="30"/>
-      <c r="WC3" s="30"/>
-      <c r="WD3" s="30"/>
-      <c r="WE3" s="30"/>
-      <c r="WF3" s="30"/>
-      <c r="WG3" s="30"/>
-      <c r="WH3" s="30"/>
-      <c r="WI3" s="30"/>
-      <c r="WJ3" s="30"/>
-      <c r="WK3" s="30"/>
-      <c r="WL3" s="30"/>
-      <c r="WM3" s="30"/>
-      <c r="WN3" s="30"/>
-      <c r="WO3" s="30"/>
-      <c r="WP3" s="30"/>
-      <c r="WQ3" s="30"/>
-      <c r="WR3" s="30"/>
-      <c r="WS3" s="30"/>
-      <c r="WT3" s="30"/>
-      <c r="WU3" s="30"/>
-      <c r="WV3" s="30"/>
-      <c r="WW3" s="30"/>
-      <c r="WX3" s="30"/>
-      <c r="WY3" s="30"/>
-      <c r="WZ3" s="30"/>
-      <c r="XA3" s="30"/>
-      <c r="XB3" s="30"/>
-      <c r="XC3" s="30"/>
-      <c r="XD3" s="30"/>
-      <c r="XE3" s="30"/>
-      <c r="XF3" s="30"/>
-      <c r="XG3" s="30"/>
-      <c r="XH3" s="30"/>
-      <c r="XI3" s="30"/>
-      <c r="XJ3" s="30"/>
-      <c r="XK3" s="30"/>
-      <c r="XL3" s="30"/>
-      <c r="XM3" s="30"/>
-      <c r="XN3" s="30"/>
-      <c r="XO3" s="30"/>
-      <c r="XP3" s="30"/>
-      <c r="XQ3" s="30"/>
-      <c r="XR3" s="30"/>
-      <c r="XS3" s="30"/>
-      <c r="XT3" s="30"/>
-      <c r="XU3" s="30"/>
-      <c r="XV3" s="30"/>
-      <c r="XW3" s="30"/>
-      <c r="XX3" s="30"/>
-      <c r="XY3" s="30"/>
-      <c r="XZ3" s="30"/>
-      <c r="YA3" s="30"/>
-      <c r="YB3" s="30"/>
-      <c r="YC3" s="30"/>
-      <c r="YD3" s="30"/>
-      <c r="YE3" s="30"/>
-      <c r="YF3" s="30"/>
-      <c r="YG3" s="30"/>
-      <c r="YH3" s="30"/>
-      <c r="YI3" s="30"/>
-      <c r="YJ3" s="30"/>
-      <c r="YK3" s="30"/>
-      <c r="YL3" s="30"/>
-      <c r="YM3" s="30"/>
-      <c r="YN3" s="30"/>
-      <c r="YO3" s="30"/>
-      <c r="YP3" s="30"/>
-      <c r="YQ3" s="30"/>
-      <c r="YR3" s="30"/>
-      <c r="YS3" s="30"/>
-      <c r="YT3" s="30"/>
-      <c r="YU3" s="30"/>
-      <c r="YV3" s="30"/>
-      <c r="YW3" s="30"/>
-      <c r="YX3" s="30"/>
-      <c r="YY3" s="30"/>
-      <c r="YZ3" s="30"/>
-      <c r="ZA3" s="30"/>
-      <c r="ZB3" s="30"/>
-      <c r="ZC3" s="30"/>
-      <c r="ZD3" s="30"/>
-      <c r="ZE3" s="30"/>
-      <c r="ZF3" s="30"/>
-      <c r="ZG3" s="30"/>
-      <c r="ZH3" s="30"/>
-      <c r="ZI3" s="30"/>
-      <c r="ZJ3" s="30"/>
-      <c r="ZK3" s="30"/>
-      <c r="ZL3" s="30"/>
-      <c r="ZM3" s="30"/>
-      <c r="ZN3" s="30"/>
-      <c r="ZO3" s="30"/>
-      <c r="ZP3" s="30"/>
-      <c r="ZQ3" s="30"/>
-      <c r="ZR3" s="30"/>
-      <c r="ZS3" s="30"/>
-      <c r="ZT3" s="30"/>
-      <c r="ZU3" s="30"/>
-      <c r="ZV3" s="30"/>
-      <c r="ZW3" s="30"/>
-      <c r="ZX3" s="30"/>
-      <c r="ZY3" s="30"/>
-      <c r="ZZ3" s="30"/>
-      <c r="AAA3" s="30"/>
-      <c r="AAB3" s="30"/>
-      <c r="AAC3" s="30"/>
-      <c r="AAD3" s="30"/>
-      <c r="AAE3" s="30"/>
-      <c r="AAF3" s="30"/>
-      <c r="AAG3" s="30"/>
-      <c r="AAH3" s="30"/>
-      <c r="AAI3" s="30"/>
-      <c r="AAJ3" s="30"/>
-      <c r="AAK3" s="30"/>
-      <c r="AAL3" s="30"/>
-      <c r="AAM3" s="30"/>
-      <c r="AAN3" s="30"/>
-      <c r="AAO3" s="30"/>
-      <c r="AAP3" s="30"/>
-      <c r="AAQ3" s="30"/>
-      <c r="AAR3" s="30"/>
-      <c r="AAS3" s="30"/>
-      <c r="AAT3" s="30"/>
-      <c r="AAU3" s="30"/>
-      <c r="AAV3" s="30"/>
-      <c r="AAW3" s="30"/>
-      <c r="AAX3" s="30"/>
-      <c r="AAY3" s="30"/>
-      <c r="AAZ3" s="30"/>
-      <c r="ABA3" s="30"/>
-      <c r="ABB3" s="30"/>
-      <c r="ABC3" s="30"/>
-      <c r="ABD3" s="30"/>
-      <c r="ABE3" s="30"/>
-      <c r="ABF3" s="30"/>
-      <c r="ABG3" s="30"/>
-      <c r="ABH3" s="30"/>
-      <c r="ABI3" s="30"/>
-      <c r="ABJ3" s="30"/>
-      <c r="ABK3" s="30"/>
-      <c r="ABL3" s="30"/>
-      <c r="ABM3" s="30"/>
-      <c r="ABN3" s="30"/>
-      <c r="ABO3" s="30"/>
-      <c r="ABP3" s="30"/>
-      <c r="ABQ3" s="30"/>
-      <c r="ABR3" s="30"/>
-      <c r="ABS3" s="30"/>
-      <c r="ABT3" s="30"/>
-      <c r="ABU3" s="30"/>
-      <c r="ABV3" s="30"/>
-      <c r="ABW3" s="30"/>
-      <c r="ABX3" s="30"/>
-      <c r="ABY3" s="30"/>
-      <c r="ABZ3" s="30"/>
-      <c r="ACA3" s="30"/>
-      <c r="ACB3" s="30"/>
-      <c r="ACC3" s="30"/>
-      <c r="ACD3" s="30"/>
-      <c r="ACE3" s="30"/>
-      <c r="ACF3" s="30"/>
-      <c r="ACG3" s="30"/>
-      <c r="ACH3" s="30"/>
-      <c r="ACI3" s="30"/>
-      <c r="ACJ3" s="30"/>
-      <c r="ACK3" s="30"/>
-      <c r="ACL3" s="30"/>
-      <c r="ACM3" s="30"/>
-      <c r="ACN3" s="30"/>
-      <c r="ACO3" s="30"/>
-      <c r="ACP3" s="30"/>
-      <c r="ACQ3" s="30"/>
-      <c r="ACR3" s="30"/>
-      <c r="ACS3" s="30"/>
-      <c r="ACT3" s="30"/>
-      <c r="ACU3" s="30"/>
-      <c r="ACV3" s="30"/>
-      <c r="ACW3" s="30"/>
-      <c r="ACX3" s="30"/>
-      <c r="ACY3" s="30"/>
-      <c r="ACZ3" s="30"/>
-      <c r="ADA3" s="30"/>
-      <c r="ADB3" s="30"/>
-      <c r="ADC3" s="30"/>
-      <c r="ADD3" s="30"/>
-      <c r="ADE3" s="30"/>
-      <c r="ADF3" s="30"/>
-      <c r="ADG3" s="30"/>
-      <c r="ADH3" s="30"/>
-      <c r="ADI3" s="30"/>
-      <c r="ADJ3" s="30"/>
-      <c r="ADK3" s="30"/>
-      <c r="ADL3" s="30"/>
-      <c r="ADM3" s="30"/>
-      <c r="ADN3" s="30"/>
-      <c r="ADO3" s="30"/>
-      <c r="ADP3" s="30"/>
-      <c r="ADQ3" s="30"/>
-      <c r="ADR3" s="30"/>
-      <c r="ADS3" s="30"/>
-      <c r="ADT3" s="30"/>
-      <c r="ADU3" s="30"/>
-      <c r="ADV3" s="30"/>
-      <c r="ADW3" s="30"/>
-      <c r="ADX3" s="30"/>
-      <c r="ADY3" s="30"/>
-      <c r="ADZ3" s="30"/>
-      <c r="AEA3" s="30"/>
-      <c r="AEB3" s="30"/>
-      <c r="AEC3" s="30"/>
-      <c r="AED3" s="30"/>
-      <c r="AEE3" s="30"/>
-      <c r="AEF3" s="30"/>
-      <c r="AEG3" s="30"/>
-      <c r="AEH3" s="30"/>
-      <c r="AEI3" s="30"/>
-      <c r="AEJ3" s="30"/>
-      <c r="AEK3" s="30"/>
-      <c r="AEL3" s="30"/>
-      <c r="AEM3" s="30"/>
-      <c r="AEN3" s="30"/>
-      <c r="AEO3" s="30"/>
-      <c r="AEP3" s="30"/>
-      <c r="AEQ3" s="30"/>
-      <c r="AER3" s="30"/>
-      <c r="AES3" s="30"/>
-      <c r="AET3" s="30"/>
-      <c r="AEU3" s="30"/>
-      <c r="AEV3" s="30"/>
-      <c r="AEW3" s="30"/>
-      <c r="AEX3" s="30"/>
-      <c r="AEY3" s="30"/>
-      <c r="AEZ3" s="30"/>
-      <c r="AFA3" s="30"/>
-      <c r="AFB3" s="30"/>
-      <c r="AFC3" s="30"/>
-      <c r="AFD3" s="30"/>
-      <c r="AFE3" s="30"/>
-      <c r="AFF3" s="30"/>
-      <c r="AFG3" s="30"/>
-      <c r="AFH3" s="30"/>
-      <c r="AFI3" s="30"/>
-      <c r="AFJ3" s="30"/>
-      <c r="AFK3" s="30"/>
-      <c r="AFL3" s="30"/>
-      <c r="AFM3" s="30"/>
-      <c r="AFN3" s="30"/>
-      <c r="AFO3" s="30"/>
-      <c r="AFP3" s="30"/>
-      <c r="AFQ3" s="30"/>
-      <c r="AFR3" s="30"/>
-      <c r="AFS3" s="30"/>
-      <c r="AFT3" s="30"/>
-      <c r="AFU3" s="30"/>
-      <c r="AFV3" s="30"/>
-      <c r="AFW3" s="30"/>
-      <c r="AFX3" s="30"/>
-      <c r="AFY3" s="30"/>
-      <c r="AFZ3" s="30"/>
-      <c r="AGA3" s="30"/>
-      <c r="AGB3" s="30"/>
-      <c r="AGC3" s="30"/>
-      <c r="AGD3" s="30"/>
-      <c r="AGE3" s="30"/>
-      <c r="AGF3" s="30"/>
-      <c r="AGG3" s="30"/>
-      <c r="AGH3" s="30"/>
-      <c r="AGI3" s="30"/>
-      <c r="AGJ3" s="30"/>
-      <c r="AGK3" s="30"/>
-      <c r="AGL3" s="30"/>
-      <c r="AGM3" s="30"/>
-      <c r="AGN3" s="30"/>
-      <c r="AGO3" s="30"/>
-      <c r="AGP3" s="30"/>
-      <c r="AGQ3" s="30"/>
-      <c r="AGR3" s="30"/>
-      <c r="AGS3" s="30"/>
-      <c r="AGT3" s="30"/>
-      <c r="AGU3" s="30"/>
-      <c r="AGV3" s="30"/>
-      <c r="AGW3" s="30"/>
-      <c r="AGX3" s="30"/>
-      <c r="AGY3" s="30"/>
-      <c r="AGZ3" s="30"/>
-      <c r="AHA3" s="30"/>
-      <c r="AHB3" s="30"/>
-      <c r="AHC3" s="30"/>
-      <c r="AHD3" s="30"/>
-      <c r="AHE3" s="30"/>
-      <c r="AHF3" s="30"/>
-      <c r="AHG3" s="30"/>
-      <c r="AHH3" s="30"/>
-      <c r="AHI3" s="30"/>
-      <c r="AHJ3" s="30"/>
-      <c r="AHK3" s="30"/>
-      <c r="AHL3" s="30"/>
-      <c r="AHM3" s="30"/>
-      <c r="AHN3" s="30"/>
-      <c r="AHO3" s="30"/>
-      <c r="AHP3" s="30"/>
-      <c r="AHQ3" s="30"/>
-      <c r="AHR3" s="30"/>
-      <c r="AHS3" s="30"/>
-      <c r="AHT3" s="30"/>
-      <c r="AHU3" s="30"/>
-      <c r="AHV3" s="30"/>
-      <c r="AHW3" s="30"/>
-      <c r="AHX3" s="30"/>
-      <c r="AHY3" s="30"/>
-      <c r="AHZ3" s="30"/>
-      <c r="AIA3" s="30"/>
-      <c r="AIB3" s="30"/>
-      <c r="AIC3" s="30"/>
-      <c r="AID3" s="30"/>
-      <c r="AIE3" s="30"/>
-      <c r="AIF3" s="30"/>
-      <c r="AIG3" s="30"/>
-      <c r="AIH3" s="30"/>
-      <c r="AII3" s="30"/>
-      <c r="AIJ3" s="30"/>
-      <c r="AIK3" s="30"/>
-      <c r="AIL3" s="30"/>
-      <c r="AIM3" s="30"/>
-      <c r="AIN3" s="30"/>
-      <c r="AIO3" s="30"/>
-      <c r="AIP3" s="30"/>
-      <c r="AIQ3" s="30"/>
-      <c r="AIR3" s="30"/>
-      <c r="AIS3" s="30"/>
-      <c r="AIT3" s="30"/>
-      <c r="AIU3" s="30"/>
-      <c r="AIV3" s="30"/>
-      <c r="AIW3" s="30"/>
-      <c r="AIX3" s="30"/>
-      <c r="AIY3" s="30"/>
-      <c r="AIZ3" s="30"/>
-      <c r="AJA3" s="30"/>
-      <c r="AJB3" s="30"/>
-      <c r="AJC3" s="30"/>
-      <c r="AJD3" s="30"/>
-      <c r="AJE3" s="30"/>
-      <c r="AJF3" s="30"/>
-      <c r="AJG3" s="30"/>
-      <c r="AJH3" s="30"/>
-      <c r="AJI3" s="30"/>
-      <c r="AJJ3" s="30"/>
-      <c r="AJK3" s="30"/>
-      <c r="AJL3" s="30"/>
-      <c r="AJM3" s="30"/>
-      <c r="AJN3" s="30"/>
-      <c r="AJO3" s="30"/>
-      <c r="AJP3" s="30"/>
-      <c r="AJQ3" s="30"/>
-      <c r="AJR3" s="30"/>
-      <c r="AJS3" s="30"/>
-      <c r="AJT3" s="30"/>
-      <c r="AJU3" s="30"/>
-      <c r="AJV3" s="30"/>
-      <c r="AJW3" s="30"/>
-      <c r="AJX3" s="30"/>
-      <c r="AJY3" s="30"/>
-      <c r="AJZ3" s="30"/>
-      <c r="AKA3" s="30"/>
-      <c r="AKB3" s="30"/>
-      <c r="AKC3" s="30"/>
-      <c r="AKD3" s="30"/>
-      <c r="AKE3" s="30"/>
-      <c r="AKF3" s="30"/>
-      <c r="AKG3" s="30"/>
-      <c r="AKH3" s="30"/>
-      <c r="AKI3" s="30"/>
-      <c r="AKJ3" s="30"/>
-      <c r="AKK3" s="30"/>
-      <c r="AKL3" s="30"/>
-      <c r="AKM3" s="30"/>
-      <c r="AKN3" s="30"/>
-      <c r="AKO3" s="30"/>
-      <c r="AKP3" s="30"/>
-      <c r="AKQ3" s="30"/>
-      <c r="AKR3" s="30"/>
-      <c r="AKS3" s="30"/>
-      <c r="AKT3" s="30"/>
-      <c r="AKU3" s="30"/>
-      <c r="AKV3" s="30"/>
-      <c r="AKW3" s="30"/>
-      <c r="AKX3" s="30"/>
-      <c r="AKY3" s="30"/>
-      <c r="AKZ3" s="30"/>
-      <c r="ALA3" s="30"/>
-      <c r="ALB3" s="30"/>
-      <c r="ALC3" s="30"/>
-      <c r="ALD3" s="30"/>
-      <c r="ALE3" s="30"/>
-      <c r="ALF3" s="30"/>
-      <c r="ALG3" s="30"/>
-      <c r="ALH3" s="30"/>
-      <c r="ALI3" s="30"/>
-      <c r="ALJ3" s="30"/>
-      <c r="ALK3" s="30"/>
-      <c r="ALL3" s="30"/>
-      <c r="ALM3" s="30"/>
-      <c r="ALN3" s="30"/>
-      <c r="ALO3" s="30"/>
-      <c r="ALP3" s="30"/>
-      <c r="ALQ3" s="30"/>
-      <c r="ALR3" s="30"/>
-      <c r="ALS3" s="30"/>
-      <c r="ALT3" s="30"/>
-      <c r="ALU3" s="30"/>
-      <c r="ALV3" s="30"/>
-      <c r="ALW3" s="30"/>
-      <c r="ALX3" s="30"/>
-      <c r="ALY3" s="30"/>
-      <c r="ALZ3" s="30"/>
-      <c r="AMA3" s="30"/>
-      <c r="AMB3" s="30"/>
-      <c r="AMC3" s="30"/>
-      <c r="AMD3" s="30"/>
-      <c r="AME3" s="30"/>
-      <c r="AMF3" s="30"/>
-      <c r="AMG3" s="30"/>
-      <c r="AMH3" s="30"/>
-      <c r="AMI3" s="30"/>
-      <c r="AMJ3" s="30"/>
-      <c r="AMK3" s="30"/>
-      <c r="AML3" s="30"/>
-      <c r="AMM3" s="30"/>
-      <c r="AMN3" s="30"/>
-      <c r="AMO3" s="30"/>
-      <c r="AMP3" s="30"/>
-      <c r="AMQ3" s="30"/>
-      <c r="AMR3" s="30"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="29"/>
+      <c r="BL3" s="29"/>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29"/>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
+      <c r="BU3" s="29"/>
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="29"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="29"/>
+      <c r="BZ3" s="29"/>
+      <c r="CA3" s="29"/>
+      <c r="CB3" s="29"/>
+      <c r="CC3" s="29"/>
+      <c r="CD3" s="29"/>
+      <c r="CE3" s="29"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="29"/>
+      <c r="CJ3" s="29"/>
+      <c r="CK3" s="29"/>
+      <c r="CL3" s="29"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="29"/>
+      <c r="CQ3" s="29"/>
+      <c r="CR3" s="29"/>
+      <c r="CS3" s="29"/>
+      <c r="CT3" s="29"/>
+      <c r="CU3" s="29"/>
+      <c r="CV3" s="29"/>
+      <c r="CW3" s="29"/>
+      <c r="CX3" s="29"/>
+      <c r="CY3" s="29"/>
+      <c r="CZ3" s="29"/>
+      <c r="DA3" s="29"/>
+      <c r="DB3" s="29"/>
+      <c r="DC3" s="29"/>
+      <c r="DD3" s="29"/>
+      <c r="DE3" s="29"/>
+      <c r="DF3" s="29"/>
+      <c r="DG3" s="29"/>
+      <c r="DH3" s="29"/>
+      <c r="DI3" s="29"/>
+      <c r="DJ3" s="29"/>
+      <c r="DK3" s="29"/>
+      <c r="DL3" s="29"/>
+      <c r="DM3" s="29"/>
+      <c r="DN3" s="29"/>
+      <c r="DO3" s="29"/>
+      <c r="DP3" s="29"/>
+      <c r="DQ3" s="29"/>
+      <c r="DR3" s="29"/>
+      <c r="DS3" s="29"/>
+      <c r="DT3" s="29"/>
+      <c r="DU3" s="29"/>
+      <c r="DV3" s="29"/>
+      <c r="DW3" s="29"/>
+      <c r="DX3" s="29"/>
+      <c r="DY3" s="29"/>
+      <c r="DZ3" s="29"/>
+      <c r="EA3" s="29"/>
+      <c r="EB3" s="29"/>
+      <c r="EC3" s="29"/>
+      <c r="ED3" s="29"/>
+      <c r="EE3" s="29"/>
+      <c r="EF3" s="29"/>
+      <c r="EG3" s="29"/>
+      <c r="EH3" s="29"/>
+      <c r="EI3" s="29"/>
+      <c r="EJ3" s="29"/>
+      <c r="EK3" s="29"/>
+      <c r="EL3" s="29"/>
+      <c r="EM3" s="29"/>
+      <c r="EN3" s="29"/>
+      <c r="EO3" s="29"/>
+      <c r="EP3" s="29"/>
+      <c r="EQ3" s="29"/>
+      <c r="ER3" s="29"/>
+      <c r="ES3" s="29"/>
+      <c r="ET3" s="29"/>
+      <c r="EU3" s="29"/>
+      <c r="EV3" s="29"/>
+      <c r="EW3" s="29"/>
+      <c r="EX3" s="29"/>
+      <c r="EY3" s="29"/>
+      <c r="EZ3" s="29"/>
+      <c r="FA3" s="29"/>
+      <c r="FB3" s="29"/>
+      <c r="FC3" s="29"/>
+      <c r="FD3" s="29"/>
+      <c r="FE3" s="29"/>
+      <c r="FF3" s="29"/>
+      <c r="FG3" s="29"/>
+      <c r="FH3" s="29"/>
+      <c r="FI3" s="29"/>
+      <c r="FJ3" s="29"/>
+      <c r="FK3" s="29"/>
+      <c r="FL3" s="29"/>
+      <c r="FM3" s="29"/>
+      <c r="FN3" s="29"/>
+      <c r="FO3" s="29"/>
+      <c r="FP3" s="29"/>
+      <c r="FQ3" s="29"/>
+      <c r="FR3" s="29"/>
+      <c r="FS3" s="29"/>
+      <c r="FT3" s="29"/>
+      <c r="FU3" s="29"/>
+      <c r="FV3" s="29"/>
+      <c r="FW3" s="29"/>
+      <c r="FX3" s="29"/>
+      <c r="FY3" s="29"/>
+      <c r="FZ3" s="29"/>
+      <c r="GA3" s="29"/>
+      <c r="GB3" s="29"/>
+      <c r="GC3" s="29"/>
+      <c r="GD3" s="29"/>
+      <c r="GE3" s="29"/>
+      <c r="GF3" s="29"/>
+      <c r="GG3" s="29"/>
+      <c r="GH3" s="29"/>
+      <c r="GI3" s="29"/>
+      <c r="GJ3" s="29"/>
+      <c r="GK3" s="29"/>
+      <c r="GL3" s="29"/>
+      <c r="GM3" s="29"/>
+      <c r="GN3" s="29"/>
+      <c r="GO3" s="29"/>
+      <c r="GP3" s="29"/>
+      <c r="GQ3" s="29"/>
+      <c r="GR3" s="29"/>
+      <c r="GS3" s="29"/>
+      <c r="GT3" s="29"/>
+      <c r="GU3" s="29"/>
+      <c r="GV3" s="29"/>
+      <c r="GW3" s="29"/>
+      <c r="GX3" s="29"/>
+      <c r="GY3" s="29"/>
+      <c r="GZ3" s="29"/>
+      <c r="HA3" s="29"/>
+      <c r="HB3" s="29"/>
+      <c r="HC3" s="29"/>
+      <c r="HD3" s="29"/>
+      <c r="HE3" s="29"/>
+      <c r="HF3" s="29"/>
+      <c r="HG3" s="29"/>
+      <c r="HH3" s="29"/>
+      <c r="HI3" s="29"/>
+      <c r="HJ3" s="29"/>
+      <c r="HK3" s="29"/>
+      <c r="HL3" s="29"/>
+      <c r="HM3" s="29"/>
+      <c r="HN3" s="29"/>
+      <c r="HO3" s="29"/>
+      <c r="HP3" s="29"/>
+      <c r="HQ3" s="29"/>
+      <c r="HR3" s="29"/>
+      <c r="HS3" s="29"/>
+      <c r="HT3" s="29"/>
+      <c r="HU3" s="29"/>
+      <c r="HV3" s="29"/>
+      <c r="HW3" s="29"/>
+      <c r="HX3" s="29"/>
+      <c r="HY3" s="29"/>
+      <c r="HZ3" s="29"/>
+      <c r="IA3" s="29"/>
+      <c r="IB3" s="29"/>
+      <c r="IC3" s="29"/>
+      <c r="ID3" s="29"/>
+      <c r="IE3" s="29"/>
+      <c r="IF3" s="29"/>
+      <c r="IG3" s="29"/>
+      <c r="IH3" s="29"/>
+      <c r="II3" s="29"/>
+      <c r="IJ3" s="29"/>
+      <c r="IK3" s="29"/>
+      <c r="IL3" s="29"/>
+      <c r="IM3" s="29"/>
+      <c r="IN3" s="29"/>
+      <c r="IO3" s="29"/>
+      <c r="IP3" s="29"/>
+      <c r="IQ3" s="29"/>
+      <c r="IR3" s="29"/>
+      <c r="IS3" s="29"/>
+      <c r="IT3" s="29"/>
+      <c r="IU3" s="29"/>
+      <c r="IV3" s="29"/>
+      <c r="IW3" s="29"/>
+      <c r="IX3" s="29"/>
+      <c r="IY3" s="29"/>
+      <c r="IZ3" s="29"/>
+      <c r="JA3" s="29"/>
+      <c r="JB3" s="29"/>
+      <c r="JC3" s="29"/>
+      <c r="JD3" s="29"/>
+      <c r="JE3" s="29"/>
+      <c r="JF3" s="29"/>
+      <c r="JG3" s="29"/>
+      <c r="JH3" s="29"/>
+      <c r="JI3" s="29"/>
+      <c r="JJ3" s="29"/>
+      <c r="JK3" s="29"/>
+      <c r="JL3" s="29"/>
+      <c r="JM3" s="29"/>
+      <c r="JN3" s="29"/>
+      <c r="JO3" s="29"/>
+      <c r="JP3" s="29"/>
+      <c r="JQ3" s="29"/>
+      <c r="JR3" s="29"/>
+      <c r="JS3" s="29"/>
+      <c r="JT3" s="29"/>
+      <c r="JU3" s="29"/>
+      <c r="JV3" s="29"/>
+      <c r="JW3" s="29"/>
+      <c r="JX3" s="29"/>
+      <c r="JY3" s="29"/>
+      <c r="JZ3" s="29"/>
+      <c r="KA3" s="29"/>
+      <c r="KB3" s="29"/>
+      <c r="KC3" s="29"/>
+      <c r="KD3" s="29"/>
+      <c r="KE3" s="29"/>
+      <c r="KF3" s="29"/>
+      <c r="KG3" s="29"/>
+      <c r="KH3" s="29"/>
+      <c r="KI3" s="29"/>
+      <c r="KJ3" s="29"/>
+      <c r="KK3" s="29"/>
+      <c r="KL3" s="29"/>
+      <c r="KM3" s="29"/>
+      <c r="KN3" s="29"/>
+      <c r="KO3" s="29"/>
+      <c r="KP3" s="29"/>
+      <c r="KQ3" s="29"/>
+      <c r="KR3" s="29"/>
+      <c r="KS3" s="29"/>
+      <c r="KT3" s="29"/>
+      <c r="KU3" s="29"/>
+      <c r="KV3" s="29"/>
+      <c r="KW3" s="29"/>
+      <c r="KX3" s="29"/>
+      <c r="KY3" s="29"/>
+      <c r="KZ3" s="29"/>
+      <c r="LA3" s="29"/>
+      <c r="LB3" s="29"/>
+      <c r="LC3" s="29"/>
+      <c r="LD3" s="29"/>
+      <c r="LE3" s="29"/>
+      <c r="LF3" s="29"/>
+      <c r="LG3" s="29"/>
+      <c r="LH3" s="29"/>
+      <c r="LI3" s="29"/>
+      <c r="LJ3" s="29"/>
+      <c r="LK3" s="29"/>
+      <c r="LL3" s="29"/>
+      <c r="LM3" s="29"/>
+      <c r="LN3" s="29"/>
+      <c r="LO3" s="29"/>
+      <c r="LP3" s="29"/>
+      <c r="LQ3" s="29"/>
+      <c r="LR3" s="29"/>
+      <c r="LS3" s="29"/>
+      <c r="LT3" s="29"/>
+      <c r="LU3" s="29"/>
+      <c r="LV3" s="29"/>
+      <c r="LW3" s="29"/>
+      <c r="LX3" s="29"/>
+      <c r="LY3" s="29"/>
+      <c r="LZ3" s="29"/>
+      <c r="MA3" s="29"/>
+      <c r="MB3" s="29"/>
+      <c r="MC3" s="29"/>
+      <c r="MD3" s="29"/>
+      <c r="ME3" s="29"/>
+      <c r="MF3" s="29"/>
+      <c r="MG3" s="29"/>
+      <c r="MH3" s="29"/>
+      <c r="MI3" s="29"/>
+      <c r="MJ3" s="29"/>
+      <c r="MK3" s="29"/>
+      <c r="ML3" s="29"/>
+      <c r="MM3" s="29"/>
+      <c r="MN3" s="29"/>
+      <c r="MO3" s="29"/>
+      <c r="MP3" s="29"/>
+      <c r="MQ3" s="29"/>
+      <c r="MR3" s="29"/>
+      <c r="MS3" s="29"/>
+      <c r="MT3" s="29"/>
+      <c r="MU3" s="29"/>
+      <c r="MV3" s="29"/>
+      <c r="MW3" s="29"/>
+      <c r="MX3" s="29"/>
+      <c r="MY3" s="29"/>
+      <c r="MZ3" s="29"/>
+      <c r="NA3" s="29"/>
+      <c r="NB3" s="29"/>
+      <c r="NC3" s="29"/>
+      <c r="ND3" s="29"/>
+      <c r="NE3" s="29"/>
+      <c r="NF3" s="29"/>
+      <c r="NG3" s="29"/>
+      <c r="NH3" s="29"/>
+      <c r="NI3" s="29"/>
+      <c r="NJ3" s="29"/>
+      <c r="NK3" s="29"/>
+      <c r="NL3" s="29"/>
+      <c r="NM3" s="29"/>
+      <c r="NN3" s="29"/>
+      <c r="NO3" s="29"/>
+      <c r="NP3" s="29"/>
+      <c r="NQ3" s="29"/>
+      <c r="NR3" s="29"/>
+      <c r="NS3" s="29"/>
+      <c r="NT3" s="29"/>
+      <c r="NU3" s="29"/>
+      <c r="NV3" s="29"/>
+      <c r="NW3" s="29"/>
+      <c r="NX3" s="29"/>
+      <c r="NY3" s="29"/>
+      <c r="NZ3" s="29"/>
+      <c r="OA3" s="29"/>
+      <c r="OB3" s="29"/>
+      <c r="OC3" s="29"/>
+      <c r="OD3" s="29"/>
+      <c r="OE3" s="29"/>
+      <c r="OF3" s="29"/>
+      <c r="OG3" s="29"/>
+      <c r="OH3" s="29"/>
+      <c r="OI3" s="29"/>
+      <c r="OJ3" s="29"/>
+      <c r="OK3" s="29"/>
+      <c r="OL3" s="29"/>
+      <c r="OM3" s="29"/>
+      <c r="ON3" s="29"/>
+      <c r="OO3" s="29"/>
+      <c r="OP3" s="29"/>
+      <c r="OQ3" s="29"/>
+      <c r="OR3" s="29"/>
+      <c r="OS3" s="29"/>
+      <c r="OT3" s="29"/>
+      <c r="OU3" s="29"/>
+      <c r="OV3" s="29"/>
+      <c r="OW3" s="29"/>
+      <c r="OX3" s="29"/>
+      <c r="OY3" s="29"/>
+      <c r="OZ3" s="29"/>
+      <c r="PA3" s="29"/>
+      <c r="PB3" s="29"/>
+      <c r="PC3" s="29"/>
+      <c r="PD3" s="29"/>
+      <c r="PE3" s="29"/>
+      <c r="PF3" s="29"/>
+      <c r="PG3" s="29"/>
+      <c r="PH3" s="29"/>
+      <c r="PI3" s="29"/>
+      <c r="PJ3" s="29"/>
+      <c r="PK3" s="29"/>
+      <c r="PL3" s="29"/>
+      <c r="PM3" s="29"/>
+      <c r="PN3" s="29"/>
+      <c r="PO3" s="29"/>
+      <c r="PP3" s="29"/>
+      <c r="PQ3" s="29"/>
+      <c r="PR3" s="29"/>
+      <c r="PS3" s="29"/>
+      <c r="PT3" s="29"/>
+      <c r="PU3" s="29"/>
+      <c r="PV3" s="29"/>
+      <c r="PW3" s="29"/>
+      <c r="PX3" s="29"/>
+      <c r="PY3" s="29"/>
+      <c r="PZ3" s="29"/>
+      <c r="QA3" s="29"/>
+      <c r="QB3" s="29"/>
+      <c r="QC3" s="29"/>
+      <c r="QD3" s="29"/>
+      <c r="QE3" s="29"/>
+      <c r="QF3" s="29"/>
+      <c r="QG3" s="29"/>
+      <c r="QH3" s="29"/>
+      <c r="QI3" s="29"/>
+      <c r="QJ3" s="29"/>
+      <c r="QK3" s="29"/>
+      <c r="QL3" s="29"/>
+      <c r="QM3" s="29"/>
+      <c r="QN3" s="29"/>
+      <c r="QO3" s="29"/>
+      <c r="QP3" s="29"/>
+      <c r="QQ3" s="29"/>
+      <c r="QR3" s="29"/>
+      <c r="QS3" s="29"/>
+      <c r="QT3" s="29"/>
+      <c r="QU3" s="29"/>
+      <c r="QV3" s="29"/>
+      <c r="QW3" s="29"/>
+      <c r="QX3" s="29"/>
+      <c r="QY3" s="29"/>
+      <c r="QZ3" s="29"/>
+      <c r="RA3" s="29"/>
+      <c r="RB3" s="29"/>
+      <c r="RC3" s="29"/>
+      <c r="RD3" s="29"/>
+      <c r="RE3" s="29"/>
+      <c r="RF3" s="29"/>
+      <c r="RG3" s="29"/>
+      <c r="RH3" s="29"/>
+      <c r="RI3" s="29"/>
+      <c r="RJ3" s="29"/>
+      <c r="RK3" s="29"/>
+      <c r="RL3" s="29"/>
+      <c r="RM3" s="29"/>
+      <c r="RN3" s="29"/>
+      <c r="RO3" s="29"/>
+      <c r="RP3" s="29"/>
+      <c r="RQ3" s="29"/>
+      <c r="RR3" s="29"/>
+      <c r="RS3" s="29"/>
+      <c r="RT3" s="29"/>
+      <c r="RU3" s="29"/>
+      <c r="RV3" s="29"/>
+      <c r="RW3" s="29"/>
+      <c r="RX3" s="29"/>
+      <c r="RY3" s="29"/>
+      <c r="RZ3" s="29"/>
+      <c r="SA3" s="29"/>
+      <c r="SB3" s="29"/>
+      <c r="SC3" s="29"/>
+      <c r="SD3" s="29"/>
+      <c r="SE3" s="29"/>
+      <c r="SF3" s="29"/>
+      <c r="SG3" s="29"/>
+      <c r="SH3" s="29"/>
+      <c r="SI3" s="29"/>
+      <c r="SJ3" s="29"/>
+      <c r="SK3" s="29"/>
+      <c r="SL3" s="29"/>
+      <c r="SM3" s="29"/>
+      <c r="SN3" s="29"/>
+      <c r="SO3" s="29"/>
+      <c r="SP3" s="29"/>
+      <c r="SQ3" s="29"/>
+      <c r="SR3" s="29"/>
+      <c r="SS3" s="29"/>
+      <c r="ST3" s="29"/>
+      <c r="SU3" s="29"/>
+      <c r="SV3" s="29"/>
+      <c r="SW3" s="29"/>
+      <c r="SX3" s="29"/>
+      <c r="SY3" s="29"/>
+      <c r="SZ3" s="29"/>
+      <c r="TA3" s="29"/>
+      <c r="TB3" s="29"/>
+      <c r="TC3" s="29"/>
+      <c r="TD3" s="29"/>
+      <c r="TE3" s="29"/>
+      <c r="TF3" s="29"/>
+      <c r="TG3" s="29"/>
+      <c r="TH3" s="29"/>
+      <c r="TI3" s="29"/>
+      <c r="TJ3" s="29"/>
+      <c r="TK3" s="29"/>
+      <c r="TL3" s="29"/>
+      <c r="TM3" s="29"/>
+      <c r="TN3" s="29"/>
+      <c r="TO3" s="29"/>
+      <c r="TP3" s="29"/>
+      <c r="TQ3" s="29"/>
+      <c r="TR3" s="29"/>
+      <c r="TS3" s="29"/>
+      <c r="TT3" s="29"/>
+      <c r="TU3" s="29"/>
+      <c r="TV3" s="29"/>
+      <c r="TW3" s="29"/>
+      <c r="TX3" s="29"/>
+      <c r="TY3" s="29"/>
+      <c r="TZ3" s="29"/>
+      <c r="UA3" s="29"/>
+      <c r="UB3" s="29"/>
+      <c r="UC3" s="29"/>
+      <c r="UD3" s="29"/>
+      <c r="UE3" s="29"/>
+      <c r="UF3" s="29"/>
+      <c r="UG3" s="29"/>
+      <c r="UH3" s="29"/>
+      <c r="UI3" s="29"/>
+      <c r="UJ3" s="29"/>
+      <c r="UK3" s="29"/>
+      <c r="UL3" s="29"/>
+      <c r="UM3" s="29"/>
+      <c r="UN3" s="29"/>
+      <c r="UO3" s="29"/>
+      <c r="UP3" s="29"/>
+      <c r="UQ3" s="29"/>
+      <c r="UR3" s="29"/>
+      <c r="US3" s="29"/>
+      <c r="UT3" s="29"/>
+      <c r="UU3" s="29"/>
+      <c r="UV3" s="29"/>
+      <c r="UW3" s="29"/>
+      <c r="UX3" s="29"/>
+      <c r="UY3" s="29"/>
+      <c r="UZ3" s="29"/>
+      <c r="VA3" s="29"/>
+      <c r="VB3" s="29"/>
+      <c r="VC3" s="29"/>
+      <c r="VD3" s="29"/>
+      <c r="VE3" s="29"/>
+      <c r="VF3" s="29"/>
+      <c r="VG3" s="29"/>
+      <c r="VH3" s="29"/>
+      <c r="VI3" s="29"/>
+      <c r="VJ3" s="29"/>
+      <c r="VK3" s="29"/>
+      <c r="VL3" s="29"/>
+      <c r="VM3" s="29"/>
+      <c r="VN3" s="29"/>
+      <c r="VO3" s="29"/>
+      <c r="VP3" s="29"/>
+      <c r="VQ3" s="29"/>
+      <c r="VR3" s="29"/>
+      <c r="VS3" s="29"/>
+      <c r="VT3" s="29"/>
+      <c r="VU3" s="29"/>
+      <c r="VV3" s="29"/>
+      <c r="VW3" s="29"/>
+      <c r="VX3" s="29"/>
+      <c r="VY3" s="29"/>
+      <c r="VZ3" s="29"/>
+      <c r="WA3" s="29"/>
+      <c r="WB3" s="29"/>
+      <c r="WC3" s="29"/>
+      <c r="WD3" s="29"/>
+      <c r="WE3" s="29"/>
+      <c r="WF3" s="29"/>
+      <c r="WG3" s="29"/>
+      <c r="WH3" s="29"/>
+      <c r="WI3" s="29"/>
+      <c r="WJ3" s="29"/>
+      <c r="WK3" s="29"/>
+      <c r="WL3" s="29"/>
+      <c r="WM3" s="29"/>
+      <c r="WN3" s="29"/>
+      <c r="WO3" s="29"/>
+      <c r="WP3" s="29"/>
+      <c r="WQ3" s="29"/>
+      <c r="WR3" s="29"/>
+      <c r="WS3" s="29"/>
+      <c r="WT3" s="29"/>
+      <c r="WU3" s="29"/>
+      <c r="WV3" s="29"/>
+      <c r="WW3" s="29"/>
+      <c r="WX3" s="29"/>
+      <c r="WY3" s="29"/>
+      <c r="WZ3" s="29"/>
+      <c r="XA3" s="29"/>
+      <c r="XB3" s="29"/>
+      <c r="XC3" s="29"/>
+      <c r="XD3" s="29"/>
+      <c r="XE3" s="29"/>
+      <c r="XF3" s="29"/>
+      <c r="XG3" s="29"/>
+      <c r="XH3" s="29"/>
+      <c r="XI3" s="29"/>
+      <c r="XJ3" s="29"/>
+      <c r="XK3" s="29"/>
+      <c r="XL3" s="29"/>
+      <c r="XM3" s="29"/>
+      <c r="XN3" s="29"/>
+      <c r="XO3" s="29"/>
+      <c r="XP3" s="29"/>
+      <c r="XQ3" s="29"/>
+      <c r="XR3" s="29"/>
+      <c r="XS3" s="29"/>
+      <c r="XT3" s="29"/>
+      <c r="XU3" s="29"/>
+      <c r="XV3" s="29"/>
+      <c r="XW3" s="29"/>
+      <c r="XX3" s="29"/>
+      <c r="XY3" s="29"/>
+      <c r="XZ3" s="29"/>
+      <c r="YA3" s="29"/>
+      <c r="YB3" s="29"/>
+      <c r="YC3" s="29"/>
+      <c r="YD3" s="29"/>
+      <c r="YE3" s="29"/>
+      <c r="YF3" s="29"/>
+      <c r="YG3" s="29"/>
+      <c r="YH3" s="29"/>
+      <c r="YI3" s="29"/>
+      <c r="YJ3" s="29"/>
+      <c r="YK3" s="29"/>
+      <c r="YL3" s="29"/>
+      <c r="YM3" s="29"/>
+      <c r="YN3" s="29"/>
+      <c r="YO3" s="29"/>
+      <c r="YP3" s="29"/>
+      <c r="YQ3" s="29"/>
+      <c r="YR3" s="29"/>
+      <c r="YS3" s="29"/>
+      <c r="YT3" s="29"/>
+      <c r="YU3" s="29"/>
+      <c r="YV3" s="29"/>
+      <c r="YW3" s="29"/>
+      <c r="YX3" s="29"/>
+      <c r="YY3" s="29"/>
+      <c r="YZ3" s="29"/>
+      <c r="ZA3" s="29"/>
+      <c r="ZB3" s="29"/>
+      <c r="ZC3" s="29"/>
+      <c r="ZD3" s="29"/>
+      <c r="ZE3" s="29"/>
+      <c r="ZF3" s="29"/>
+      <c r="ZG3" s="29"/>
+      <c r="ZH3" s="29"/>
+      <c r="ZI3" s="29"/>
+      <c r="ZJ3" s="29"/>
+      <c r="ZK3" s="29"/>
+      <c r="ZL3" s="29"/>
+      <c r="ZM3" s="29"/>
+      <c r="ZN3" s="29"/>
+      <c r="ZO3" s="29"/>
+      <c r="ZP3" s="29"/>
+      <c r="ZQ3" s="29"/>
+      <c r="ZR3" s="29"/>
+      <c r="ZS3" s="29"/>
+      <c r="ZT3" s="29"/>
+      <c r="ZU3" s="29"/>
+      <c r="ZV3" s="29"/>
+      <c r="ZW3" s="29"/>
+      <c r="ZX3" s="29"/>
+      <c r="ZY3" s="29"/>
+      <c r="ZZ3" s="29"/>
+      <c r="AAA3" s="29"/>
+      <c r="AAB3" s="29"/>
+      <c r="AAC3" s="29"/>
+      <c r="AAD3" s="29"/>
+      <c r="AAE3" s="29"/>
+      <c r="AAF3" s="29"/>
+      <c r="AAG3" s="29"/>
+      <c r="AAH3" s="29"/>
+      <c r="AAI3" s="29"/>
+      <c r="AAJ3" s="29"/>
+      <c r="AAK3" s="29"/>
+      <c r="AAL3" s="29"/>
+      <c r="AAM3" s="29"/>
+      <c r="AAN3" s="29"/>
+      <c r="AAO3" s="29"/>
+      <c r="AAP3" s="29"/>
+      <c r="AAQ3" s="29"/>
+      <c r="AAR3" s="29"/>
+      <c r="AAS3" s="29"/>
+      <c r="AAT3" s="29"/>
+      <c r="AAU3" s="29"/>
+      <c r="AAV3" s="29"/>
+      <c r="AAW3" s="29"/>
+      <c r="AAX3" s="29"/>
+      <c r="AAY3" s="29"/>
+      <c r="AAZ3" s="29"/>
+      <c r="ABA3" s="29"/>
+      <c r="ABB3" s="29"/>
+      <c r="ABC3" s="29"/>
+      <c r="ABD3" s="29"/>
+      <c r="ABE3" s="29"/>
+      <c r="ABF3" s="29"/>
+      <c r="ABG3" s="29"/>
+      <c r="ABH3" s="29"/>
+      <c r="ABI3" s="29"/>
+      <c r="ABJ3" s="29"/>
+      <c r="ABK3" s="29"/>
+      <c r="ABL3" s="29"/>
+      <c r="ABM3" s="29"/>
+      <c r="ABN3" s="29"/>
+      <c r="ABO3" s="29"/>
+      <c r="ABP3" s="29"/>
+      <c r="ABQ3" s="29"/>
+      <c r="ABR3" s="29"/>
+      <c r="ABS3" s="29"/>
+      <c r="ABT3" s="29"/>
+      <c r="ABU3" s="29"/>
+      <c r="ABV3" s="29"/>
+      <c r="ABW3" s="29"/>
+      <c r="ABX3" s="29"/>
+      <c r="ABY3" s="29"/>
+      <c r="ABZ3" s="29"/>
+      <c r="ACA3" s="29"/>
+      <c r="ACB3" s="29"/>
+      <c r="ACC3" s="29"/>
+      <c r="ACD3" s="29"/>
+      <c r="ACE3" s="29"/>
+      <c r="ACF3" s="29"/>
+      <c r="ACG3" s="29"/>
+      <c r="ACH3" s="29"/>
+      <c r="ACI3" s="29"/>
+      <c r="ACJ3" s="29"/>
+      <c r="ACK3" s="29"/>
+      <c r="ACL3" s="29"/>
+      <c r="ACM3" s="29"/>
+      <c r="ACN3" s="29"/>
+      <c r="ACO3" s="29"/>
+      <c r="ACP3" s="29"/>
+      <c r="ACQ3" s="29"/>
+      <c r="ACR3" s="29"/>
+      <c r="ACS3" s="29"/>
+      <c r="ACT3" s="29"/>
+      <c r="ACU3" s="29"/>
+      <c r="ACV3" s="29"/>
+      <c r="ACW3" s="29"/>
+      <c r="ACX3" s="29"/>
+      <c r="ACY3" s="29"/>
+      <c r="ACZ3" s="29"/>
+      <c r="ADA3" s="29"/>
+      <c r="ADB3" s="29"/>
+      <c r="ADC3" s="29"/>
+      <c r="ADD3" s="29"/>
+      <c r="ADE3" s="29"/>
+      <c r="ADF3" s="29"/>
+      <c r="ADG3" s="29"/>
+      <c r="ADH3" s="29"/>
+      <c r="ADI3" s="29"/>
+      <c r="ADJ3" s="29"/>
+      <c r="ADK3" s="29"/>
+      <c r="ADL3" s="29"/>
+      <c r="ADM3" s="29"/>
+      <c r="ADN3" s="29"/>
+      <c r="ADO3" s="29"/>
+      <c r="ADP3" s="29"/>
+      <c r="ADQ3" s="29"/>
+      <c r="ADR3" s="29"/>
+      <c r="ADS3" s="29"/>
+      <c r="ADT3" s="29"/>
+      <c r="ADU3" s="29"/>
+      <c r="ADV3" s="29"/>
+      <c r="ADW3" s="29"/>
+      <c r="ADX3" s="29"/>
+      <c r="ADY3" s="29"/>
+      <c r="ADZ3" s="29"/>
+      <c r="AEA3" s="29"/>
+      <c r="AEB3" s="29"/>
+      <c r="AEC3" s="29"/>
+      <c r="AED3" s="29"/>
+      <c r="AEE3" s="29"/>
+      <c r="AEF3" s="29"/>
+      <c r="AEG3" s="29"/>
+      <c r="AEH3" s="29"/>
+      <c r="AEI3" s="29"/>
+      <c r="AEJ3" s="29"/>
+      <c r="AEK3" s="29"/>
+      <c r="AEL3" s="29"/>
+      <c r="AEM3" s="29"/>
+      <c r="AEN3" s="29"/>
+      <c r="AEO3" s="29"/>
+      <c r="AEP3" s="29"/>
+      <c r="AEQ3" s="29"/>
+      <c r="AER3" s="29"/>
+      <c r="AES3" s="29"/>
+      <c r="AET3" s="29"/>
+      <c r="AEU3" s="29"/>
+      <c r="AEV3" s="29"/>
+      <c r="AEW3" s="29"/>
+      <c r="AEX3" s="29"/>
+      <c r="AEY3" s="29"/>
+      <c r="AEZ3" s="29"/>
+      <c r="AFA3" s="29"/>
+      <c r="AFB3" s="29"/>
+      <c r="AFC3" s="29"/>
+      <c r="AFD3" s="29"/>
+      <c r="AFE3" s="29"/>
+      <c r="AFF3" s="29"/>
+      <c r="AFG3" s="29"/>
+      <c r="AFH3" s="29"/>
+      <c r="AFI3" s="29"/>
+      <c r="AFJ3" s="29"/>
+      <c r="AFK3" s="29"/>
+      <c r="AFL3" s="29"/>
+      <c r="AFM3" s="29"/>
+      <c r="AFN3" s="29"/>
+      <c r="AFO3" s="29"/>
+      <c r="AFP3" s="29"/>
+      <c r="AFQ3" s="29"/>
+      <c r="AFR3" s="29"/>
+      <c r="AFS3" s="29"/>
+      <c r="AFT3" s="29"/>
+      <c r="AFU3" s="29"/>
+      <c r="AFV3" s="29"/>
+      <c r="AFW3" s="29"/>
+      <c r="AFX3" s="29"/>
+      <c r="AFY3" s="29"/>
+      <c r="AFZ3" s="29"/>
+      <c r="AGA3" s="29"/>
+      <c r="AGB3" s="29"/>
+      <c r="AGC3" s="29"/>
+      <c r="AGD3" s="29"/>
+      <c r="AGE3" s="29"/>
+      <c r="AGF3" s="29"/>
+      <c r="AGG3" s="29"/>
+      <c r="AGH3" s="29"/>
+      <c r="AGI3" s="29"/>
+      <c r="AGJ3" s="29"/>
+      <c r="AGK3" s="29"/>
+      <c r="AGL3" s="29"/>
+      <c r="AGM3" s="29"/>
+      <c r="AGN3" s="29"/>
+      <c r="AGO3" s="29"/>
+      <c r="AGP3" s="29"/>
+      <c r="AGQ3" s="29"/>
+      <c r="AGR3" s="29"/>
+      <c r="AGS3" s="29"/>
+      <c r="AGT3" s="29"/>
+      <c r="AGU3" s="29"/>
+      <c r="AGV3" s="29"/>
+      <c r="AGW3" s="29"/>
+      <c r="AGX3" s="29"/>
+      <c r="AGY3" s="29"/>
+      <c r="AGZ3" s="29"/>
+      <c r="AHA3" s="29"/>
+      <c r="AHB3" s="29"/>
+      <c r="AHC3" s="29"/>
+      <c r="AHD3" s="29"/>
+      <c r="AHE3" s="29"/>
+      <c r="AHF3" s="29"/>
+      <c r="AHG3" s="29"/>
+      <c r="AHH3" s="29"/>
+      <c r="AHI3" s="29"/>
+      <c r="AHJ3" s="29"/>
+      <c r="AHK3" s="29"/>
+      <c r="AHL3" s="29"/>
+      <c r="AHM3" s="29"/>
+      <c r="AHN3" s="29"/>
+      <c r="AHO3" s="29"/>
+      <c r="AHP3" s="29"/>
+      <c r="AHQ3" s="29"/>
+      <c r="AHR3" s="29"/>
+      <c r="AHS3" s="29"/>
+      <c r="AHT3" s="29"/>
+      <c r="AHU3" s="29"/>
+      <c r="AHV3" s="29"/>
+      <c r="AHW3" s="29"/>
+      <c r="AHX3" s="29"/>
+      <c r="AHY3" s="29"/>
+      <c r="AHZ3" s="29"/>
+      <c r="AIA3" s="29"/>
+      <c r="AIB3" s="29"/>
+      <c r="AIC3" s="29"/>
+      <c r="AID3" s="29"/>
+      <c r="AIE3" s="29"/>
+      <c r="AIF3" s="29"/>
+      <c r="AIG3" s="29"/>
+      <c r="AIH3" s="29"/>
+      <c r="AII3" s="29"/>
+      <c r="AIJ3" s="29"/>
+      <c r="AIK3" s="29"/>
+      <c r="AIL3" s="29"/>
+      <c r="AIM3" s="29"/>
+      <c r="AIN3" s="29"/>
+      <c r="AIO3" s="29"/>
+      <c r="AIP3" s="29"/>
+      <c r="AIQ3" s="29"/>
+      <c r="AIR3" s="29"/>
+      <c r="AIS3" s="29"/>
+      <c r="AIT3" s="29"/>
+      <c r="AIU3" s="29"/>
+      <c r="AIV3" s="29"/>
+      <c r="AIW3" s="29"/>
+      <c r="AIX3" s="29"/>
+      <c r="AIY3" s="29"/>
+      <c r="AIZ3" s="29"/>
+      <c r="AJA3" s="29"/>
+      <c r="AJB3" s="29"/>
+      <c r="AJC3" s="29"/>
+      <c r="AJD3" s="29"/>
+      <c r="AJE3" s="29"/>
+      <c r="AJF3" s="29"/>
+      <c r="AJG3" s="29"/>
+      <c r="AJH3" s="29"/>
+      <c r="AJI3" s="29"/>
+      <c r="AJJ3" s="29"/>
+      <c r="AJK3" s="29"/>
+      <c r="AJL3" s="29"/>
+      <c r="AJM3" s="29"/>
+      <c r="AJN3" s="29"/>
+      <c r="AJO3" s="29"/>
+      <c r="AJP3" s="29"/>
+      <c r="AJQ3" s="29"/>
+      <c r="AJR3" s="29"/>
+      <c r="AJS3" s="29"/>
+      <c r="AJT3" s="29"/>
+      <c r="AJU3" s="29"/>
+      <c r="AJV3" s="29"/>
+      <c r="AJW3" s="29"/>
+      <c r="AJX3" s="29"/>
+      <c r="AJY3" s="29"/>
+      <c r="AJZ3" s="29"/>
+      <c r="AKA3" s="29"/>
+      <c r="AKB3" s="29"/>
+      <c r="AKC3" s="29"/>
+      <c r="AKD3" s="29"/>
+      <c r="AKE3" s="29"/>
+      <c r="AKF3" s="29"/>
+      <c r="AKG3" s="29"/>
+      <c r="AKH3" s="29"/>
+      <c r="AKI3" s="29"/>
+      <c r="AKJ3" s="29"/>
+      <c r="AKK3" s="29"/>
+      <c r="AKL3" s="29"/>
+      <c r="AKM3" s="29"/>
+      <c r="AKN3" s="29"/>
+      <c r="AKO3" s="29"/>
+      <c r="AKP3" s="29"/>
+      <c r="AKQ3" s="29"/>
+      <c r="AKR3" s="29"/>
+      <c r="AKS3" s="29"/>
+      <c r="AKT3" s="29"/>
+      <c r="AKU3" s="29"/>
+      <c r="AKV3" s="29"/>
+      <c r="AKW3" s="29"/>
+      <c r="AKX3" s="29"/>
+      <c r="AKY3" s="29"/>
+      <c r="AKZ3" s="29"/>
+      <c r="ALA3" s="29"/>
+      <c r="ALB3" s="29"/>
+      <c r="ALC3" s="29"/>
+      <c r="ALD3" s="29"/>
+      <c r="ALE3" s="29"/>
+      <c r="ALF3" s="29"/>
+      <c r="ALG3" s="29"/>
+      <c r="ALH3" s="29"/>
+      <c r="ALI3" s="29"/>
+      <c r="ALJ3" s="29"/>
+      <c r="ALK3" s="29"/>
+      <c r="ALL3" s="29"/>
+      <c r="ALM3" s="29"/>
+      <c r="ALN3" s="29"/>
+      <c r="ALO3" s="29"/>
+      <c r="ALP3" s="29"/>
+      <c r="ALQ3" s="29"/>
+      <c r="ALR3" s="29"/>
+      <c r="ALS3" s="29"/>
+      <c r="ALT3" s="29"/>
+      <c r="ALU3" s="29"/>
+      <c r="ALV3" s="29"/>
+      <c r="ALW3" s="29"/>
+      <c r="ALX3" s="29"/>
+      <c r="ALY3" s="29"/>
+      <c r="ALZ3" s="29"/>
+      <c r="AMA3" s="29"/>
+      <c r="AMB3" s="29"/>
+      <c r="AMC3" s="29"/>
+      <c r="AMD3" s="29"/>
+      <c r="AME3" s="29"/>
+      <c r="AMF3" s="29"/>
+      <c r="AMG3" s="29"/>
+      <c r="AMH3" s="29"/>
+      <c r="AMI3" s="29"/>
+      <c r="AMJ3" s="29"/>
+      <c r="AMK3" s="29"/>
+      <c r="AML3" s="29"/>
+      <c r="AMM3" s="29"/>
+      <c r="AMN3" s="29"/>
+      <c r="AMO3" s="29"/>
+      <c r="AMP3" s="29"/>
+      <c r="AMQ3" s="29"/>
+      <c r="AMR3" s="29"/>
     </row>
     <row r="4" spans="1:1032" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="56">
         <v>4.58E-17</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="16">
         <v>7.75</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="16">
         <v>0.77500000000000002</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:1032" s="32" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:1032" s="31" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>78</v>
       </c>
       <c r="F5"/>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="57">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="30">
         <v>7.75</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="30">
         <v>0.77500000000000002</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="T5" s="31" t="s">
+      <c r="T5" s="30" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8182,23 +8046,23 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="A4" sqref="A4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="17" customWidth="1"/>
-    <col min="2" max="2" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.83203125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="1028" width="8.83203125" style="17" customWidth="1"/>
-    <col min="1029" max="1030" width="9" style="17" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.83203125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="1028" width="8.83203125" style="16" customWidth="1"/>
+    <col min="1029" max="1030" width="9" style="16" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -8207,96 +8071,102 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="17">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="55">
         <v>1</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>0</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" s="17">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="55">
         <v>2</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>0</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K5"/>
@@ -8313,17 +8183,17 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD11"/>
+      <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="15.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="9.1640625" style="17" hidden="1" customWidth="1"/>
-    <col min="11" max="1026" width="9.1640625" style="17" customWidth="1"/>
-    <col min="1027" max="1028" width="9" style="17" customWidth="1"/>
-    <col min="1029" max="16384" width="9" style="17"/>
+    <col min="1" max="5" width="15.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="16" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="9.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="1026" width="9.1640625" style="16" customWidth="1"/>
+    <col min="1027" max="1028" width="9" style="16" customWidth="1"/>
+    <col min="1029" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -8332,63 +8202,64 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="55" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="55" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8407,108 +8278,108 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="8.83203125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="8.83203125" style="16" customWidth="1"/>
     <col min="13" max="1026" width="8.83203125" style="7" customWidth="1"/>
     <col min="1027" max="1028" width="9" style="7" customWidth="1"/>
     <col min="1029" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="59">
-        <v>1E-4</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="78">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="41" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="59">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="42" t="s">
+      <c r="E4" s="78">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="41" t="s">
         <v>103</v>
       </c>
     </row>

--- a/tests/fixtures/dynamic_tests/template.xlsx
+++ b/tests/fixtures/dynamic_tests/template.xlsx
@@ -1226,7 +1226,7 @@
     <row r="1" customFormat="1" s="7">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesTrajectory' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesTrajectory' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="22" t="n"/>
@@ -1311,7 +1311,7 @@
     <row r="1" customFormat="1" s="7">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='AggregateTrajectory' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='AggregateTrajectory' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="22" t="n"/>
@@ -1537,7 +1537,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
     <row r="1" customFormat="1" s="71">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="J1" s="71" t="n"/>
@@ -4754,7 +4754,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
     <row r="1" customFormat="1" s="71">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -5677,7 +5677,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C4"/>
@@ -5775,7 +5775,7 @@
     <row r="1" customFormat="1" s="71">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8244,7 +8244,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8564,7 +8564,7 @@
     <row r="1">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="22" t="n"/>
